--- a/project1/messy_data/admissions.xlsx
+++ b/project1/messy_data/admissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ZhaojieYao/Dropbox/SpringBoard/SpringBoardProjects/project1/messy_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0304318A-9973-504A-888B-4FEB59B26582}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BC5A35-2031-E649-AC0A-90612E1FD2AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="55">
   <si>
     <t>--</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>Washington</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>Alaska</t>
@@ -1118,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
@@ -1583,7 +1580,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="9">
         <v>258</v>
@@ -2193,7 +2190,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="9">
         <v>1954</v>
@@ -2315,7 +2312,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="9">
         <v>641</v>
@@ -2803,7 +2800,7 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="9">
         <v>191</v>
@@ -6219,7 +6216,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="9">
         <v>228</v>
@@ -6951,7 +6948,7 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="9">
         <v>263</v>
@@ -7723,8 +7720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7937,13 +7934,13 @@
         <v>21330</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="19">
         <v>23074</v>
@@ -8184,7 +8181,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="19">
         <v>250</v>
@@ -8794,7 +8791,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="19">
         <v>1833</v>
@@ -8916,7 +8913,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="19">
         <v>609</v>
@@ -9404,7 +9401,7 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="19">
         <v>184</v>
@@ -12820,7 +12817,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="19">
         <v>224</v>
@@ -13552,7 +13549,7 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="19">
         <v>257</v>
@@ -14752,7 +14749,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="19">
         <v>8</v>
@@ -15362,7 +15359,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="19">
         <v>121</v>
@@ -15484,7 +15481,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="19">
         <v>32</v>
@@ -15972,7 +15969,7 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="19">
         <v>7</v>
@@ -19388,7 +19385,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="19">
         <v>4</v>
@@ -20120,7 +20117,7 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="19">
         <v>6</v>
